--- a/ch06/状态机.xlsx
+++ b/ch06/状态机.xlsx
@@ -3298,6 +3298,313 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>378758</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>120463</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="文本框 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6152029" y="8908676"/>
+          <a:ext cx="378758" cy="288552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    \</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>40986</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>155482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="曲线连接符 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="7"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="2258236" y="6193937"/>
+          <a:ext cx="273568" cy="760403"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -124984"/>
+            <a:gd name="adj2" fmla="val 130063"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>453839</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>20170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="文本框 58"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1916206" y="5995147"/>
+          <a:ext cx="588309" cy="244288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>其他</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>35017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>20170</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="曲线连接符 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="150" idx="2"/>
+          <a:endCxn id="150" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="3674968" y="9784135"/>
+          <a:ext cx="446555" cy="386883"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -51192"/>
+            <a:gd name="adj2" fmla="val 159088"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>263338</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="文本框 60"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3092823" y="10062882"/>
+          <a:ext cx="588309" cy="244288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>其他</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3592,8 +3899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
